--- a/Data Rak Belakang.xlsx
+++ b/Data Rak Belakang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>No Resi</t>
+    <t>No SAP</t>
   </si>
   <si>
     <t>Nama Sparepart</t>
   </si>
   <si>
-    <t>Meker</t>
+    <t>Maker</t>
   </si>
   <si>
     <t>No Rak</t>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>ALCPL ACD</t>
+  </si>
+  <si>
+    <t>16-03-2023</t>
+  </si>
+  <si>
+    <t>test barang</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>AICPL</t>
+  </si>
+  <si>
+    <t>17-03-2023</t>
+  </si>
+  <si>
+    <t>BCPL Billet Headling</t>
+  </si>
+  <si>
+    <t>awdawd</t>
   </si>
 </sst>
 </file>
@@ -423,10 +444,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,6 +528,182 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1124</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1223</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1124</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1223</v>
+      </c>
+      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1223</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
